--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1866" windowWidth="19200" windowHeight="8790"/>
+    <workbookView xWindow="0" yWindow="2460" windowWidth="19200" windowHeight="8790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Unit Testing</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Shout through door</t>
   </si>
   <si>
-    <t>Push door</t>
-  </si>
-  <si>
     <t>Try handle</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>Smart Ending</t>
+  </si>
+  <si>
+    <t>Violent Ending</t>
+  </si>
+  <si>
+    <t>Force door</t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
     <tableColumn id="7" name="Attck door with glass"/>
     <tableColumn id="8" name="Attack door with shiv"/>
     <tableColumn id="9" name="Shout through door"/>
-    <tableColumn id="10" name="Push door"/>
+    <tableColumn id="10" name="Force door"/>
     <tableColumn id="11" name="Try handle"/>
     <tableColumn id="12" name="Talk to guard"/>
     <tableColumn id="13" name="Attack guard with teeth"/>
@@ -932,22 +935,22 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="4.5234375" customWidth="1"/>
-    <col min="18" max="18" width="39.83984375" customWidth="1"/>
-    <col min="19" max="19" width="24.83984375" customWidth="1"/>
+    <col min="1" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="39.85546875" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="114.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" ht="116.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -976,199 +979,202 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Testing.xlsx
+++ b/Testing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="19200" windowHeight="8790"/>
+    <workbookView xWindow="0" yWindow="3060" windowWidth="19200" windowHeight="8790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Unit Testing</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Attack door with fists</t>
   </si>
   <si>
-    <t>Attck door with glass</t>
-  </si>
-  <si>
     <t>Attack door with shiv</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Expected Outcome</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Easter Egg</t>
   </si>
   <si>
@@ -93,13 +87,28 @@
   </si>
   <si>
     <t>Force door</t>
+  </si>
+  <si>
+    <t>Smart Score</t>
+  </si>
+  <si>
+    <t>Violent Score</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Attack door with glass</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +125,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,20 +155,86 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="180"/>
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="38">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="180" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -441,28 +528,28 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="PurpleFrogTable" defaultPivotStyle="PurpleFrogPivotTable">
     <tableStyle name="PurpleFrogPivotTable" table="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="14"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="13"/>
-      <tableStyleElement type="thirdSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
-      <tableStyleElement type="pageFieldValues" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="totalRow" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="33"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="32"/>
+      <tableStyleElement type="thirdSubtotalRow" dxfId="31"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="30"/>
+      <tableStyleElement type="pageFieldValues" dxfId="29"/>
     </tableStyle>
     <tableStyle name="PurpleFrogSlicer" pivot="0" table="0" count="10">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
     <tableStyle name="PurpleFrogTable" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="totalRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="lastColumn" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="25"/>
+      <tableStyleElement type="totalRow" dxfId="24"/>
+      <tableStyleElement type="firstColumn" dxfId="23"/>
+      <tableStyleElement type="lastColumn" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -642,28 +729,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:S5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:S5"/>
-  <tableColumns count="19">
-    <tableColumn id="2" name="Take Sheet"/>
-    <tableColumn id="5" name="Take glass"/>
-    <tableColumn id="1" name="Make Shiv"/>
-    <tableColumn id="3" name="Attack bed with glass"/>
-    <tableColumn id="4" name="Attack bed with shiv"/>
-    <tableColumn id="6" name="Attack door with fists"/>
-    <tableColumn id="7" name="Attck door with glass"/>
-    <tableColumn id="8" name="Attack door with shiv"/>
-    <tableColumn id="9" name="Shout through door"/>
-    <tableColumn id="10" name="Force door"/>
-    <tableColumn id="11" name="Try handle"/>
-    <tableColumn id="12" name="Talk to guard"/>
-    <tableColumn id="13" name="Attack guard with teeth"/>
-    <tableColumn id="14" name="Attack guard with glass"/>
-    <tableColumn id="15" name="Attack guard with shiv"/>
-    <tableColumn id="16" name="Sneak past guard"/>
-    <tableColumn id="17" name="Run past guard"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:U5" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A2:U5">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+    <filterColumn colId="13" hiddenButton="1"/>
+    <filterColumn colId="14" hiddenButton="1"/>
+    <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
+    <filterColumn colId="18" hiddenButton="1"/>
+    <filterColumn colId="19" hiddenButton="1"/>
+    <filterColumn colId="20" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="21">
+    <tableColumn id="2" name="Take Sheet" dataDxfId="18"/>
+    <tableColumn id="5" name="Take glass" dataDxfId="17"/>
+    <tableColumn id="1" name="Make Shiv" dataDxfId="16"/>
+    <tableColumn id="3" name="Attack bed with glass" dataDxfId="15"/>
+    <tableColumn id="4" name="Attack bed with shiv" dataDxfId="14"/>
+    <tableColumn id="6" name="Attack door with fists" dataDxfId="13"/>
+    <tableColumn id="7" name="Attack door with glass" dataDxfId="12"/>
+    <tableColumn id="8" name="Attack door with shiv" dataDxfId="11"/>
+    <tableColumn id="9" name="Shout through door" dataDxfId="10"/>
+    <tableColumn id="10" name="Force door" dataDxfId="9"/>
+    <tableColumn id="11" name="Try handle" dataDxfId="8"/>
+    <tableColumn id="12" name="Talk to guard" dataDxfId="7"/>
+    <tableColumn id="13" name="Attack guard with teeth" dataDxfId="6"/>
+    <tableColumn id="14" name="Attack guard with glass" dataDxfId="5"/>
+    <tableColumn id="15" name="Attack guard with shiv" dataDxfId="4"/>
+    <tableColumn id="16" name="Sneak past guard" dataDxfId="3"/>
+    <tableColumn id="17" name="Run past guard" dataDxfId="2"/>
+    <tableColumn id="19" name="Smart Score" dataDxfId="1"/>
+    <tableColumn id="20" name="Violent Score" dataDxfId="0"/>
     <tableColumn id="18" name="Expected Outcome"/>
-    <tableColumn id="19" name="Result"/>
+    <tableColumn id="21" name="Outcome"/>
   </tableColumns>
   <tableStyleInfo name="PurpleFrogTable" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,25 +1043,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="17" width="4.5703125" customWidth="1"/>
-    <col min="18" max="18" width="39.85546875" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" customWidth="1"/>
+    <col min="18" max="19" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="116.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="116.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -970,211 +1082,244 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>8</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>6</v>
+      </c>
+      <c r="S5" s="3">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="T5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>21</v>
+      <c r="U5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
